--- a/docs/FPS.xlsx
+++ b/docs/FPS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FPS" sheetId="1" r:id="rId1"/>
@@ -1281,6 +1281,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1288,45 +1327,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3430,6 +3430,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104013</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="685800"/>
+          <a:ext cx="6095238" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3759,7 +3797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4108,7 +4148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -4143,11 +4183,11 @@
       <c r="E3" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="57" t="s">
@@ -4340,11 +4380,11 @@
       <c r="E16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" s="57" t="s">
@@ -4442,11 +4482,11 @@
       <c r="E23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
@@ -4729,24 +4769,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/FPS.xlsx
+++ b/docs/FPS.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FPS" sheetId="1" r:id="rId1"/>
     <sheet name="概要" sheetId="2" r:id="rId2"/>
     <sheet name="パラメータ" sheetId="4" r:id="rId3"/>
     <sheet name="ATTテーブル" sheetId="3" r:id="rId4"/>
+    <sheet name="ATTテーブル (SensorTag)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="179">
   <si>
     <t>"NDEF data"</t>
     <phoneticPr fontId="6"/>
@@ -743,10 +744,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>"FeliCa Plug Tag"</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>0x2A00</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -796,6 +793,309 @@
   </si>
   <si>
     <t>0x5503</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"FelicaLinkDev"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"TI BLE Sensor Tag"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:03:00:00:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:05:00:01:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Peripheral Privacy Flag</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>08:09:00:03:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A03</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:0B:00:04:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>50:00:A0:00:00:00:E8:03</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A02</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>00:00</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Reconnection Address</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Service Changed</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A05</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>20:0E:00:05:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Device Information Service</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>System ID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:12:00:23:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A23</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>60:E2:B1:00:00:EB:D7:90</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Model Number String</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Serial Number String</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Firmware Revision String</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Hardware Revision String</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Software Revision String</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Manufacturer Name String</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IEEE11073-20601</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PnP ID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A24</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A25</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A26</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A27</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A28</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A29</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x2A50</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0x180A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IR Temperature Service</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0xAA01</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IR Temperature Data</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>00:00:00:00</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>12:25:00:00:00:00:00:00:00:00:B0:00:40:51:04:01:AA:00:F0</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"Temp. Data"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0A:29:00:00:00:00:00:00:00:00:B0:00:40:51:04:02:AA:00:F0</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0xAA00</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>F000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-0451-4000-B000-000000000000</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0xAA02</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IR Temperature Config</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Char. User Description</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"Temp. Conf"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0A:2C:00:00:00:00:00:00:00:00:B0:00:40:51:04:03:AA:00:F0</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IR Temperature Period</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"Temp. Period"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0xAA03</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:14:00:24:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"N.A."</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:16:00:25:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:18:00:26:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"1.5 (Oct 23 2013)"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:1A:00:27:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4E:2E:41:2E:00</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:1E:00:29:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"Texas Instruments"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:20:00:2A:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>FE:00:65:78:70:65:72:69:6D:65:6E:74:61:6C</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>02:22:00:50:2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>01:0D:00:00:00:10:01</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -803,7 +1103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +1221,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -954,7 +1270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1113,6 +1429,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1120,7 +1445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1272,6 +1597,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1328,6 +1656,120 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3471,6 +3913,768 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7463582" cy="1371145"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="1962150"/>
+          <a:ext cx="7463582" cy="1371145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>[F1:78:92:42:17:BF][LE]&gt; connect F1:78:92:42:17:BF random</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Attempting to connect to F1:78:92:42:17:BF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Connection successful</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>[F1:78:92:42:17:BF][LE]&gt; primary</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0001, end grp handle: 0x0007 uuid: 00001800-0000-1000-8000-00805f9b34fb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0008, end grp handle: 0x0008 uuid: 00001801-0000-1000-8000-00805f9b34fb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0009, end grp handle: 0xffff uuid: 8f825500-7326-78cf-e5b0-f514e62bc594</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右中かっこ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="847725"/>
+          <a:ext cx="123825" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右中かっこ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="4276725"/>
+          <a:ext cx="142875" cy="4438650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右中かっこ 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658101" y="3086101"/>
+          <a:ext cx="45719" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7781925" y="1452563"/>
+          <a:ext cx="1352550" cy="1281112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7703820" y="2886075"/>
+          <a:ext cx="1392555" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7772400" y="3067050"/>
+          <a:ext cx="1333500" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390620" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="1590675"/>
+          <a:ext cx="390620" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390620" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="2781300"/>
+          <a:ext cx="390620" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1724126" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="4429125"/>
+          <a:ext cx="1724126" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>まだ実装してなかったかも</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7463582" cy="2330253"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="2057400"/>
+          <a:ext cx="7463582" cy="2330253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>[34:B1:F7:D4:FA:33][LE]&gt;primary</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0001, end grp handle: 0x000b uuid: 00001800-0000-1000-8000-00805f9b34fb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x000c, end grp handle: 0x000f uuid: 00001801-0000-1000-8000-00805f9b34fb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0010, end grp handle: 0x0022 uuid: 0000180a-0000-1000-8000-00805f9b34fb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0023, end grp handle: 0x002d uuid: f000aa00-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x002e, end grp handle: 0x0038 uuid: f000aa10-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0039, end grp handle: 0x0043 uuid: f000aa20-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0044, end grp handle: 0x004e uuid: f000aa30-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x004f, end grp handle: 0x005d uuid: f000aa40-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x005e, end grp handle: 0x0068 uuid: f000aa50-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0069, end grp handle: 0x006d uuid: 0000ffe0-0000-1000-8000-00805f9b34fb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x006e, end grp handle: 0x0078 uuid: f000ccc0-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0079, end grp handle: 0x0085 uuid: f000bcc0-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>attr handle: 0x0086, end grp handle: 0xffff uuid: f000ffc0-0451-4000-b000-000000000000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3772,7 +4976,7 @@
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E19" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.15">
@@ -3797,7 +5001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -4148,8 +5352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4171,53 +5375,53 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="63" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="63" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="64" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="34" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="32" t="s">
@@ -4235,7 +5439,7 @@
         <v>56</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -4259,10 +5463,10 @@
       <c r="B8" s="18"/>
       <c r="C8" s="15"/>
       <c r="D8" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>57</v>
@@ -4271,7 +5475,7 @@
         <v>57</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -4372,49 +5576,49 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="63" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="64" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="34" t="s">
         <v>83</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="64"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
@@ -4474,35 +5678,35 @@
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="63" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="63" t="s">
+      <c r="G24" s="67"/>
+      <c r="H24" s="64" t="s">
         <v>72</v>
       </c>
       <c r="I24" s="33"/>
@@ -4510,17 +5714,17 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="33"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="64"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="34" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="64"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
     </row>
@@ -4540,7 +5744,7 @@
         <v>67</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="54" x14ac:dyDescent="0.15">
@@ -4569,7 +5773,7 @@
         <v>62</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>61</v>
@@ -4642,10 +5846,10 @@
       <c r="B32" s="18"/>
       <c r="C32" s="17"/>
       <c r="D32" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>61</v>
@@ -4671,7 +5875,7 @@
         <v>56</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -4716,10 +5920,10 @@
       <c r="B36" s="18"/>
       <c r="C36" s="17"/>
       <c r="D36" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>56</v>
@@ -4745,7 +5949,7 @@
         <v>56</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="27" x14ac:dyDescent="0.15">
@@ -4791,5 +5995,1218 @@
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J68"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="73"/>
+    <col min="2" max="2" width="3.75" style="73" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="9" style="73" customWidth="1"/>
+    <col min="6" max="7" width="2.625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="42" style="73" customWidth="1"/>
+    <col min="9" max="10" width="9" style="73"/>
+    <col min="11" max="11" width="18.875" style="73" customWidth="1"/>
+    <col min="12" max="12" width="9" style="73"/>
+    <col min="13" max="16" width="2.875" style="73" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="73" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="H4" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="87"/>
+      <c r="C7" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="87"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="87"/>
+      <c r="C9" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="87"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="87"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="87"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="87"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="79"/>
+      <c r="H21" s="77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="83"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="87"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="87"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="41"/>
+      <c r="B29" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="41"/>
+      <c r="B31" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="79"/>
+      <c r="H31" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="41"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="83"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="87"/>
+      <c r="C34" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="89"/>
+      <c r="E34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="87"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="87"/>
+      <c r="C36" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="89"/>
+      <c r="E36" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="87"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="87"/>
+      <c r="C38" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="87"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="87"/>
+      <c r="C40" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="89"/>
+      <c r="E40" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="87"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="87"/>
+      <c r="C42" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="89"/>
+      <c r="E42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="87"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="87"/>
+      <c r="C44" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="89"/>
+      <c r="E44" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="87"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="87"/>
+      <c r="C46" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="89"/>
+      <c r="E46" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="103" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="87"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="104" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="87"/>
+      <c r="C48" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="89"/>
+      <c r="E48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="103" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="87"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="87"/>
+      <c r="C50" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="89"/>
+      <c r="E50" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="87"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="104" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="41"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="41"/>
+      <c r="B54" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="56"/>
+      <c r="H55" s="57"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="41"/>
+      <c r="B56" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="79"/>
+      <c r="H56" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="41"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="83"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B59" s="87"/>
+      <c r="C59" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="89"/>
+      <c r="E59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B60" s="87"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B61" s="87"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="87"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B63" s="87"/>
+      <c r="C63" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="89"/>
+      <c r="E63" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B64" s="87"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="87"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="102" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B66" s="87"/>
+      <c r="C66" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="89"/>
+      <c r="E66" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="87"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68" s="107"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>